--- a/src/assets/AllIndicesExample.xlsx
+++ b/src/assets/AllIndicesExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B28AFA-F470-48C9-B4C9-A8736705D856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39A4E4C-41D0-491F-941C-826689AA2726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,12 +70,6 @@
     <t>NFT500</t>
   </si>
   <si>
-    <t>GNFT500MC50:25:25</t>
-  </si>
-  <si>
-    <t>NFT500MC50:25:25</t>
-  </si>
-  <si>
     <t>GNFT500LGMSEQLCAPWTD</t>
   </si>
   <si>
@@ -358,18 +352,6 @@
     <t>NFT200QLT30</t>
   </si>
   <si>
-    <t>GNFT50SRTDURDEBTDYNP/B</t>
-  </si>
-  <si>
-    <t>NFT50SRTDURDEBTDYNP/B</t>
-  </si>
-  <si>
-    <t>GNFT50SRTDURDEBTDYNP/E</t>
-  </si>
-  <si>
-    <t>NFT50SRTDURDEBTDYNP/E</t>
-  </si>
-  <si>
     <t>GNFTEQTSAV</t>
   </si>
   <si>
@@ -457,9 +439,6 @@
     <t>NFTINDCORPGRPITG</t>
   </si>
   <si>
-    <t>NFTINDCORPGRPITG25%C</t>
-  </si>
-  <si>
     <t>NFTTRANSLOG</t>
   </si>
   <si>
@@ -472,12 +451,6 @@
     <t>NFT500SH</t>
   </si>
   <si>
-    <t>NFT500MULCINDMFG50:30:20</t>
-  </si>
-  <si>
-    <t>NFT500MULCINFS50:30:20</t>
-  </si>
-  <si>
     <t>NFTSMEEMG</t>
   </si>
   <si>
@@ -490,9 +463,6 @@
     <t>NFTFINSERV</t>
   </si>
   <si>
-    <t>NFTFINSERV25/50</t>
-  </si>
-  <si>
     <t>NFTFINSERVEB</t>
   </si>
   <si>
@@ -625,9 +595,6 @@
     <t>GNFTINDCORPGRPITG</t>
   </si>
   <si>
-    <t>GNFTINDCORPGRPITG25%C</t>
-  </si>
-  <si>
     <t>GNFTTRANSLOG</t>
   </si>
   <si>
@@ -640,12 +607,6 @@
     <t>GNFT500SH</t>
   </si>
   <si>
-    <t>GNFT500MULCINDMFG50:30:20</t>
-  </si>
-  <si>
-    <t>GNFT500MULCINFS50:30:20</t>
-  </si>
-  <si>
     <t>GNFTSMEEMG</t>
   </si>
   <si>
@@ -658,9 +619,6 @@
     <t>GNFTFINSERV</t>
   </si>
   <si>
-    <t>GNFTFINSERV25/50</t>
-  </si>
-  <si>
     <t>GNFTFINSERVEB</t>
   </si>
   <si>
@@ -716,6 +674,48 @@
   </si>
   <si>
     <t>This is PCNT</t>
+  </si>
+  <si>
+    <t>GNFT50SRTDURDEBTDYNP_B</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_B</t>
+  </si>
+  <si>
+    <t>GNFT50SRTDURDEBTDYNP_E</t>
+  </si>
+  <si>
+    <t>NFT50SRTDURDEBTDYNP_E</t>
+  </si>
+  <si>
+    <t>GNFTFINSERV25_50</t>
+  </si>
+  <si>
+    <t>NFTFINSERV25_50</t>
+  </si>
+  <si>
+    <t>GNFT500MC50_25_25</t>
+  </si>
+  <si>
+    <t>NFT500MC50_25_25</t>
+  </si>
+  <si>
+    <t>GNFT500MULCINDMFG50_30_20</t>
+  </si>
+  <si>
+    <t>NFT500MULCINDMFG50_30_20</t>
+  </si>
+  <si>
+    <t>GNFT500MULCINFS50_30_20</t>
+  </si>
+  <si>
+    <t>NFT500MULCINFS50_30_20</t>
+  </si>
+  <si>
+    <t>GNFTINDCORPGRPITG25PC</t>
+  </si>
+  <si>
+    <t>NFTINDCORPGRPITG25PC</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:HT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1487,646 +1487,646 @@
         <v>15</v>
       </c>
       <c r="O1" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AI1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AL1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AN1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AO1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AP1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AR1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="23" t="s">
+      <c r="AS1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="23" t="s">
+      <c r="AT1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AU1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AV1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AW1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AX1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AY1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="AZ1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="BA1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AZ1" s="23" t="s">
+      <c r="BB1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="23" t="s">
+      <c r="BC1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="23" t="s">
+      <c r="BD1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="BC1" s="23" t="s">
+      <c r="BE1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="23" t="s">
+      <c r="BF1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="23" t="s">
+      <c r="BG1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="BH1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BI1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="BH1" s="23" t="s">
+      <c r="BJ1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="BI1" s="23" t="s">
+      <c r="BK1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BL1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BM1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="BL1" s="23" t="s">
+      <c r="BN1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="BM1" s="23" t="s">
+      <c r="BO1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="BN1" s="23" t="s">
+      <c r="BP1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="BO1" s="23" t="s">
+      <c r="BQ1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BP1" s="23" t="s">
+      <c r="BR1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="BQ1" s="23" t="s">
+      <c r="BS1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="BR1" s="23" t="s">
+      <c r="BT1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="BS1" s="23" t="s">
+      <c r="BU1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="BT1" s="23" t="s">
+      <c r="BV1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="BU1" s="23" t="s">
+      <c r="BW1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="BV1" s="23" t="s">
+      <c r="BX1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="BW1" s="23" t="s">
+      <c r="BY1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="BX1" s="23" t="s">
+      <c r="BZ1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="BY1" s="23" t="s">
+      <c r="CA1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="BZ1" s="23" t="s">
+      <c r="CB1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="CA1" s="23" t="s">
+      <c r="CC1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="23" t="s">
+      <c r="CD1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="CC1" s="23" t="s">
+      <c r="CE1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="CD1" s="23" t="s">
+      <c r="CF1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="CE1" s="23" t="s">
+      <c r="CG1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="CF1" s="23" t="s">
+      <c r="CH1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="CG1" s="23" t="s">
+      <c r="CI1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="CH1" s="23" t="s">
+      <c r="CJ1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="CI1" s="23" t="s">
+      <c r="CK1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="CJ1" s="23" t="s">
+      <c r="CL1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="CK1" s="23" t="s">
+      <c r="CM1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="CL1" s="23" t="s">
+      <c r="CN1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="23" t="s">
+      <c r="CO1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="CN1" s="23" t="s">
+      <c r="CP1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="CO1" s="23" t="s">
+      <c r="CQ1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="CP1" s="23" t="s">
+      <c r="CR1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="CQ1" s="23" t="s">
+      <c r="CS1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="CR1" s="23" t="s">
+      <c r="CT1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="CS1" s="23" t="s">
+      <c r="CU1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="CT1" s="23" t="s">
+      <c r="CV1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="CU1" s="23" t="s">
+      <c r="CW1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="CV1" s="23" t="s">
+      <c r="CX1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="CW1" s="23" t="s">
+      <c r="CY1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="CX1" s="23" t="s">
+      <c r="CZ1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="CY1" s="23" t="s">
+      <c r="DA1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="CZ1" s="23" t="s">
+      <c r="DB1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="DA1" s="23" t="s">
+      <c r="DC1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="DB1" s="23" t="s">
+      <c r="DD1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="DC1" s="23" t="s">
+      <c r="DE1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="DD1" s="23" t="s">
+      <c r="DF1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="DE1" s="23" t="s">
+      <c r="DG1" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="DH1" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="DI1" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="DJ1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="DK1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="DF1" s="23" t="s">
+      <c r="DL1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="DG1" s="23" t="s">
+      <c r="DM1" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="DN1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="DH1" s="23" t="s">
+      <c r="DO1" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="DP1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="DI1" s="23" t="s">
+      <c r="DQ1" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="DR1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="DJ1" s="23" t="s">
+      <c r="DS1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="DT1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="DK1" s="23" t="s">
+      <c r="DU1" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="DV1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="DL1" s="23" t="s">
+      <c r="DW1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="DX1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="DM1" s="23" t="s">
+      <c r="DY1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="DZ1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="EA1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="EB1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="EC1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="ED1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="EE1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="EG1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="DN1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="DO1" s="23" t="s">
+      <c r="EH1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="EI1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="DP1" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="23" t="s">
+      <c r="EJ1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="EK1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="DR1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="24" t="s">
+      <c r="EL1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="EM1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="DT1" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU1" s="23" t="s">
+      <c r="EN1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="EO1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="DV1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW1" s="23" t="s">
+      <c r="EP1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="EQ1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="DX1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="DY1" s="23" t="s">
+      <c r="ER1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="ES1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="DZ1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="EA1" s="23" t="s">
+      <c r="ET1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="EU1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="EB1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="EC1" s="23" t="s">
+      <c r="EV1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="EW1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="ED1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="EE1" s="23" t="s">
+      <c r="EX1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="EY1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="EF1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="EG1" s="23" t="s">
+      <c r="EZ1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="FA1" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="EH1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="EI1" s="23" t="s">
+      <c r="FB1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="FC1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="EJ1" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="EK1" s="23" t="s">
+      <c r="FD1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="EL1" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="EM1" s="23" t="s">
+      <c r="FF1" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="FG1" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="EN1" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="EO1" s="23" t="s">
+      <c r="FH1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="FI1" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="EP1" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="EQ1" s="24" t="s">
+      <c r="FJ1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="FK1" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="ER1" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="ES1" s="23" t="s">
+      <c r="FL1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="FM1" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="ET1" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="EU1" s="23" t="s">
+      <c r="FN1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="FO1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="FP1" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="FQ1" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="EV1" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="EW1" s="23" t="s">
+      <c r="FR1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="FS1" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="EX1" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="EY1" s="23" t="s">
+      <c r="FT1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="FU1" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="EZ1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="FA1" s="23" t="s">
+      <c r="FV1" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="FW1" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="FB1" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="FC1" s="23" t="s">
+      <c r="FX1" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="FY1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="FZ1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="GA1" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="GB1" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="GC1" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="FD1" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="FE1" s="23" t="s">
+      <c r="GD1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="GE1" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="FF1" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="FG1" s="23" t="s">
+      <c r="GF1" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="GG1" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="FH1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="FI1" s="23" t="s">
+      <c r="GH1" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="GI1" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="FJ1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="FK1" s="23" t="s">
+      <c r="GJ1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="GK1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="GL1" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="GM1" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="FL1" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="FM1" s="23" t="s">
+      <c r="GN1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="GO1" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="FN1" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="FO1" s="23" t="s">
+      <c r="GP1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="GQ1" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="FP1" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="FQ1" s="23" t="s">
+      <c r="GR1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="GS1" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="FR1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="FS1" s="23" t="s">
+      <c r="GT1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="GU1" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="FT1" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="FU1" s="23" t="s">
+      <c r="GV1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="GW1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="FV1" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="FW1" s="23" t="s">
+      <c r="GX1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="GY1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="FX1" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="FY1" s="23" t="s">
+      <c r="GZ1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="HA1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="FZ1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="GA1" s="24" t="s">
+      <c r="HB1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="HC1" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="GB1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="GC1" s="23" t="s">
+      <c r="HD1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="HE1" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="GD1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="GE1" s="23" t="s">
+      <c r="HF1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="HG1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="GF1" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="GG1" s="23" t="s">
+      <c r="HH1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="HI1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="GH1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="GI1" s="23" t="s">
+      <c r="HJ1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="HK1" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="GJ1" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="GK1" s="23" t="s">
+      <c r="HL1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="HM1" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="GL1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="GM1" s="23" t="s">
+      <c r="HN1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="HO1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="GN1" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="GO1" s="23" t="s">
+      <c r="HP1" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="HQ1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="GP1" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="GQ1" s="23" t="s">
+      <c r="HR1" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="HS1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="GR1" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="GS1" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="GT1" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="GU1" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="GV1" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="GW1" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="GX1" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="GY1" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="GZ1" s="23" t="s">
+      <c r="HT1" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="HA1" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="HB1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="HC1" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="HD1" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="HE1" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="HF1" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="HG1" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="HH1" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="HI1" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="HJ1" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="HK1" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="HL1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="HM1" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="HN1" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="HO1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="HP1" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="HQ1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="HR1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="HS1" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="HT1" s="23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:228" ht="14.4">
@@ -2660,6 +2660,156 @@
       <c r="FV2" s="3">
         <v>0.1</v>
       </c>
+      <c r="FW2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="FX2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="FZ2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GB2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GD2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GF2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GH2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GJ2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GL2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GN2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GP2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GR2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GT2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GV2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GX2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="GZ2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HB2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HD2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HF2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HH2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HJ2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HL2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HN2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HP2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HR2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="HT2" s="3">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3" spans="1:228" ht="43.2">
       <c r="A3" s="4" t="s">
@@ -2669,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
@@ -2848,6 +2998,56 @@
       <c r="FT3" s="6"/>
       <c r="FU3" s="6"/>
       <c r="FV3" s="6"/>
+      <c r="FW3" s="6"/>
+      <c r="FX3" s="6"/>
+      <c r="FY3" s="6"/>
+      <c r="FZ3" s="6"/>
+      <c r="GA3" s="6"/>
+      <c r="GB3" s="6"/>
+      <c r="GC3" s="6"/>
+      <c r="GD3" s="6"/>
+      <c r="GE3" s="6"/>
+      <c r="GF3" s="6"/>
+      <c r="GG3" s="6"/>
+      <c r="GH3" s="6"/>
+      <c r="GI3" s="6"/>
+      <c r="GJ3" s="6"/>
+      <c r="GK3" s="6"/>
+      <c r="GL3" s="6"/>
+      <c r="GM3" s="6"/>
+      <c r="GN3" s="6"/>
+      <c r="GO3" s="6"/>
+      <c r="GP3" s="6"/>
+      <c r="GQ3" s="6"/>
+      <c r="GR3" s="6"/>
+      <c r="GS3" s="6"/>
+      <c r="GT3" s="6"/>
+      <c r="GU3" s="6"/>
+      <c r="GV3" s="6"/>
+      <c r="GW3" s="6"/>
+      <c r="GX3" s="6"/>
+      <c r="GY3" s="6"/>
+      <c r="GZ3" s="6"/>
+      <c r="HA3" s="6"/>
+      <c r="HB3" s="6"/>
+      <c r="HC3" s="6"/>
+      <c r="HD3" s="6"/>
+      <c r="HE3" s="6"/>
+      <c r="HF3" s="6"/>
+      <c r="HG3" s="6"/>
+      <c r="HH3" s="6"/>
+      <c r="HI3" s="6"/>
+      <c r="HJ3" s="6"/>
+      <c r="HK3" s="6"/>
+      <c r="HL3" s="6"/>
+      <c r="HM3" s="6"/>
+      <c r="HN3" s="6"/>
+      <c r="HO3" s="6"/>
+      <c r="HP3" s="6"/>
+      <c r="HQ3" s="6"/>
+      <c r="HR3" s="6"/>
+      <c r="HS3" s="6"/>
+      <c r="HT3" s="6"/>
     </row>
     <row r="4" spans="1:228" ht="14.4">
       <c r="A4" s="10"/>

--- a/src/assets/AllIndicesExample.xlsx
+++ b/src/assets/AllIndicesExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D0343-AA06-48F9-8065-8105EED78DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAAE94C-E881-4FD7-9F18-B2C1A7B22379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>DATE</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>Date must be in yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -796,27 +799,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -827,19 +815,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -925,25 +900,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -955,35 +927,39 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,2019 +1178,2024 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:HS4"/>
+  <dimension ref="A1:HT4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="16" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="15" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="12" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="11" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="11" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="8" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="19" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="15" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="184" max="185" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="8" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="11" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="12" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="143" max="144" width="11" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="11" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="8" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="19" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="15" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="185" max="186" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:227" ht="43.8" thickBot="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:228" ht="43.8" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AI1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AK1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AL1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="19" t="s">
+      <c r="AM1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AN1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AO1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AP1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AR1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AS1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AT1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AU1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AV1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AW1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AX1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="AY1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BA1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BB1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BC1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BD1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BE1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BF1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BG1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BH1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BI1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BJ1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BK1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BL1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BM1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BN1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BO1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BP1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BQ1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BR1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="19" t="s">
+      <c r="BS1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="19" t="s">
+      <c r="BT1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="19" t="s">
+      <c r="BU1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="19" t="s">
+      <c r="BV1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="19" t="s">
+      <c r="BW1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="19" t="s">
+      <c r="BX1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="19" t="s">
+      <c r="BY1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="19" t="s">
+      <c r="BZ1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="19" t="s">
+      <c r="CA1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="19" t="s">
+      <c r="CB1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="19" t="s">
+      <c r="CC1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CD1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="19" t="s">
+      <c r="CE1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="19" t="s">
+      <c r="CF1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="19" t="s">
+      <c r="CG1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="19" t="s">
+      <c r="CH1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="19" t="s">
+      <c r="CI1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="19" t="s">
+      <c r="CJ1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="19" t="s">
+      <c r="CK1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="19" t="s">
+      <c r="CL1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="19" t="s">
+      <c r="CM1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="19" t="s">
+      <c r="CN1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="19" t="s">
+      <c r="CO1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="19" t="s">
+      <c r="CP1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="19" t="s">
+      <c r="CQ1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="19" t="s">
+      <c r="CR1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" s="19" t="s">
+      <c r="CS1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="CS1" s="19" t="s">
+      <c r="CT1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" s="19" t="s">
+      <c r="CU1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CV1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CW1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CX1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CY1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="CZ1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="DA1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" s="19" t="s">
+      <c r="DB1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" s="19" t="s">
+      <c r="DC1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DD1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="DD1" s="19" t="s">
+      <c r="DE1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="DE1" s="19" t="s">
+      <c r="DF1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DG1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DH1" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="DH1" s="19" t="s">
+      <c r="DI1" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="DI1" s="19" t="s">
+      <c r="DJ1" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="DJ1" s="19" t="s">
+      <c r="DK1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="DK1" s="19" t="s">
+      <c r="DL1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="DL1" s="19" t="s">
+      <c r="DM1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="DM1" s="19" t="s">
+      <c r="DN1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="DN1" s="19" t="s">
+      <c r="DO1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="DO1" s="19" t="s">
+      <c r="DP1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="DP1" s="19" t="s">
+      <c r="DQ1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="DQ1" s="19" t="s">
+      <c r="DR1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="DR1" s="20" t="s">
+      <c r="DS1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="DS1" s="20" t="s">
+      <c r="DT1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="DT1" s="19" t="s">
+      <c r="DU1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="DU1" s="19" t="s">
+      <c r="DV1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="DV1" s="19" t="s">
+      <c r="DW1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="DW1" s="19" t="s">
+      <c r="DX1" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="DX1" s="19" t="s">
+      <c r="DY1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="DY1" s="19" t="s">
+      <c r="DZ1" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="DZ1" s="19" t="s">
+      <c r="EA1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="EA1" s="19" t="s">
+      <c r="EB1" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="EB1" s="19" t="s">
+      <c r="EC1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="EC1" s="19" t="s">
+      <c r="ED1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="ED1" s="19" t="s">
+      <c r="EE1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="EE1" s="19" t="s">
+      <c r="EF1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="EF1" s="19" t="s">
+      <c r="EG1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="EG1" s="19" t="s">
+      <c r="EH1" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="EH1" s="19" t="s">
+      <c r="EI1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="EI1" s="19" t="s">
+      <c r="EJ1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="EJ1" s="19" t="s">
+      <c r="EK1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="EK1" s="19" t="s">
+      <c r="EL1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="EL1" s="19" t="s">
+      <c r="EM1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="EM1" s="19" t="s">
+      <c r="EN1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="EN1" s="19" t="s">
+      <c r="EO1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="EO1" s="19" t="s">
+      <c r="EP1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="EP1" s="20" t="s">
+      <c r="EQ1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="EQ1" s="19" t="s">
+      <c r="ER1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="ER1" s="19" t="s">
+      <c r="ES1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="ES1" s="19" t="s">
+      <c r="ET1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="ET1" s="19" t="s">
+      <c r="EU1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="EU1" s="19" t="s">
+      <c r="EV1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="EV1" s="19" t="s">
+      <c r="EW1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="EW1" s="19" t="s">
+      <c r="EX1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="EX1" s="19" t="s">
+      <c r="EY1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="EY1" s="19" t="s">
+      <c r="EZ1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="EZ1" s="19" t="s">
+      <c r="FA1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="FA1" s="19" t="s">
+      <c r="FB1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="FB1" s="19" t="s">
+      <c r="FC1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="FC1" s="19" t="s">
+      <c r="FD1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="FD1" s="19" t="s">
+      <c r="FE1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="FE1" s="19" t="s">
+      <c r="FF1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="FF1" s="19" t="s">
+      <c r="FG1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="FG1" s="19" t="s">
+      <c r="FH1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="FH1" s="19" t="s">
+      <c r="FI1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="FI1" s="19" t="s">
+      <c r="FJ1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="FJ1" s="19" t="s">
+      <c r="FK1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="FK1" s="19" t="s">
+      <c r="FL1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="FL1" s="19" t="s">
+      <c r="FM1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="FM1" s="19" t="s">
+      <c r="FN1" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="FN1" s="19" t="s">
+      <c r="FO1" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="FO1" s="19" t="s">
+      <c r="FP1" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="FP1" s="19" t="s">
+      <c r="FQ1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="FQ1" s="19" t="s">
+      <c r="FR1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="FR1" s="19" t="s">
+      <c r="FS1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="FS1" s="19" t="s">
+      <c r="FT1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="FT1" s="19" t="s">
+      <c r="FU1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="FU1" s="19" t="s">
+      <c r="FV1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="FV1" s="19" t="s">
+      <c r="FW1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="FW1" s="19" t="s">
+      <c r="FX1" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="FX1" s="19" t="s">
+      <c r="FY1" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="FY1" s="19" t="s">
+      <c r="FZ1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="FZ1" s="20" t="s">
+      <c r="GA1" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="GA1" s="20" t="s">
+      <c r="GB1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="GB1" s="19" t="s">
+      <c r="GC1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="GC1" s="19" t="s">
+      <c r="GD1" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="GD1" s="19" t="s">
+      <c r="GE1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="GE1" s="19" t="s">
+      <c r="GF1" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="GF1" s="19" t="s">
+      <c r="GG1" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="GG1" s="19" t="s">
+      <c r="GH1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="GH1" s="19" t="s">
+      <c r="GI1" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="GI1" s="19" t="s">
+      <c r="GJ1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="GJ1" s="19" t="s">
+      <c r="GK1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="GK1" s="19" t="s">
+      <c r="GL1" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="GL1" s="19" t="s">
+      <c r="GM1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="GM1" s="19" t="s">
+      <c r="GN1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="GN1" s="19" t="s">
+      <c r="GO1" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="GO1" s="19" t="s">
+      <c r="GP1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="GP1" s="19" t="s">
+      <c r="GQ1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="GQ1" s="19" t="s">
+      <c r="GR1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="GR1" s="19" t="s">
+      <c r="GS1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="GS1" s="19" t="s">
+      <c r="GT1" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="GT1" s="19" t="s">
+      <c r="GU1" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="GU1" s="19" t="s">
+      <c r="GV1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="GV1" s="19" t="s">
+      <c r="GW1" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="GW1" s="19" t="s">
+      <c r="GX1" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="GX1" s="19" t="s">
+      <c r="GY1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="GY1" s="19" t="s">
+      <c r="GZ1" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="GZ1" s="19" t="s">
+      <c r="HA1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="HA1" s="19" t="s">
+      <c r="HB1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="HB1" s="19" t="s">
+      <c r="HC1" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="HC1" s="19" t="s">
+      <c r="HD1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="HD1" s="19" t="s">
+      <c r="HE1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="HE1" s="19" t="s">
+      <c r="HF1" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="HF1" s="19" t="s">
+      <c r="HG1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="HG1" s="19" t="s">
+      <c r="HH1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="HH1" s="19" t="s">
+      <c r="HI1" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="HI1" s="19" t="s">
+      <c r="HJ1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="HJ1" s="19" t="s">
+      <c r="HK1" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="HK1" s="19" t="s">
+      <c r="HL1" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="HL1" s="19" t="s">
+      <c r="HM1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="HM1" s="19" t="s">
+      <c r="HN1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="HN1" s="19" t="s">
+      <c r="HO1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="HO1" s="19" t="s">
+      <c r="HP1" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="HP1" s="19" t="s">
+      <c r="HQ1" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="HQ1" s="19" t="s">
+      <c r="HR1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="HR1" s="19" t="s">
+      <c r="HS1" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="HS1" s="19" t="s">
+      <c r="HT1" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:227" ht="14.4">
-      <c r="A2" s="23">
+    <row r="2" spans="1:228" ht="14.4">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22">
         <v>45469</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0.1</v>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1000</v>
       </c>
       <c r="F2" s="14">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0.1</v>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1000</v>
       </c>
       <c r="H2" s="14">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="CY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="CZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="DY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="DZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="ED2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="ER2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="ES2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="ET2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="EY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="EZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="FY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="FZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GS2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GT2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GU2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GV2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GW2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GX2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="GY2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="GZ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HA2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HB2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HC2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HD2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HE2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HF2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HG2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HH2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HI2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HJ2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HK2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HL2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HM2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HN2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HO2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HP2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HQ2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="HR2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="HS2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GW2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="GY2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HA2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HC2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HE2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HG2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HI2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HK2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HM2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HO2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HQ2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="HS2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="HT2" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:227" ht="43.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:228" ht="43.2">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="5"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="5"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
       <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="5"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="6"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
       <c r="AO3" s="5"/>
-      <c r="AP3" s="6"/>
+      <c r="AP3" s="4"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="5"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
       <c r="AU3" s="4"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="6"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="4"/>
       <c r="AY3" s="5"/>
-      <c r="AZ3" s="6"/>
+      <c r="AZ3" s="4"/>
       <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
+      <c r="BB3" s="4"/>
       <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="6"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
       <c r="BM3" s="5"/>
-      <c r="BN3" s="6"/>
+      <c r="BN3" s="4"/>
       <c r="BO3" s="5"/>
-      <c r="BP3" s="6"/>
+      <c r="BP3" s="4"/>
       <c r="BQ3" s="5"/>
-      <c r="BR3" s="6"/>
+      <c r="BR3" s="4"/>
       <c r="BS3" s="5"/>
       <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="4"/>
-      <c r="CB3" s="6"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
       <c r="CC3" s="5"/>
       <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="5"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
       <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="5"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
       <c r="CK3" s="4"/>
-      <c r="CL3" s="5"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="4"/>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
-      <c r="CP3" s="6"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
       <c r="CQ3" s="5"/>
-      <c r="CR3" s="6"/>
+      <c r="CR3" s="4"/>
       <c r="CS3" s="5"/>
-      <c r="CT3" s="6"/>
+      <c r="CT3" s="4"/>
       <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
+      <c r="CV3" s="4"/>
       <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="6"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3"/>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3"/>
+      <c r="DB3" s="3"/>
       <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
+      <c r="DD3" s="4"/>
       <c r="DE3" s="4"/>
-      <c r="DF3" s="4"/>
-      <c r="DG3" s="4"/>
-      <c r="DH3" s="4"/>
-      <c r="DI3" s="4"/>
-      <c r="DJ3" s="4"/>
-      <c r="DK3" s="4"/>
-      <c r="DL3" s="5"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3"/>
+      <c r="DJ3" s="3"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
       <c r="DM3" s="4"/>
-      <c r="DN3" s="4"/>
-      <c r="DO3" s="4"/>
-      <c r="DP3" s="5"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
       <c r="DQ3" s="4"/>
-      <c r="DR3" s="4"/>
-      <c r="DS3" s="4"/>
-      <c r="DT3" s="5"/>
+      <c r="DR3" s="3"/>
+      <c r="DS3" s="3"/>
+      <c r="DT3" s="3"/>
       <c r="DU3" s="4"/>
-      <c r="DV3" s="4"/>
-      <c r="DW3" s="4"/>
-      <c r="DX3" s="4"/>
-      <c r="DY3" s="4"/>
-      <c r="DZ3" s="4"/>
-      <c r="EA3" s="4"/>
-      <c r="EB3" s="4"/>
-      <c r="EC3" s="4"/>
-      <c r="ED3" s="5"/>
+      <c r="DV3" s="3"/>
+      <c r="DW3" s="3"/>
+      <c r="DX3" s="3"/>
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3"/>
+      <c r="EB3" s="3"/>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3"/>
       <c r="EE3" s="4"/>
-      <c r="EF3" s="5"/>
+      <c r="EF3" s="3"/>
       <c r="EG3" s="4"/>
-      <c r="EH3" s="4"/>
-      <c r="EI3" s="4"/>
-      <c r="EJ3" s="5"/>
+      <c r="EH3" s="3"/>
+      <c r="EI3" s="3"/>
+      <c r="EJ3" s="3"/>
       <c r="EK3" s="4"/>
-      <c r="EL3" s="5"/>
+      <c r="EL3" s="3"/>
       <c r="EM3" s="4"/>
-      <c r="EN3" s="5"/>
+      <c r="EN3" s="3"/>
       <c r="EO3" s="4"/>
-      <c r="EP3" s="4"/>
-      <c r="EQ3" s="4"/>
-      <c r="ER3" s="4"/>
-      <c r="ES3" s="4"/>
-      <c r="ET3" s="5"/>
+      <c r="EP3" s="3"/>
+      <c r="EQ3" s="3"/>
+      <c r="ER3" s="3"/>
+      <c r="ES3" s="3"/>
+      <c r="ET3" s="3"/>
       <c r="EU3" s="4"/>
-      <c r="EV3" s="4"/>
-      <c r="EW3" s="4"/>
-      <c r="EX3" s="5"/>
+      <c r="EV3" s="3"/>
+      <c r="EW3" s="3"/>
+      <c r="EX3" s="3"/>
       <c r="EY3" s="4"/>
-      <c r="EZ3" s="5"/>
+      <c r="EZ3" s="3"/>
       <c r="FA3" s="4"/>
-      <c r="FB3" s="5"/>
+      <c r="FB3" s="3"/>
       <c r="FC3" s="4"/>
-      <c r="FD3" s="5"/>
+      <c r="FD3" s="3"/>
       <c r="FE3" s="4"/>
-      <c r="FF3" s="4"/>
-      <c r="FG3" s="4"/>
-      <c r="FH3" s="5"/>
+      <c r="FF3" s="3"/>
+      <c r="FG3" s="3"/>
+      <c r="FH3" s="3"/>
       <c r="FI3" s="4"/>
-      <c r="FJ3" s="5"/>
+      <c r="FJ3" s="3"/>
       <c r="FK3" s="4"/>
-      <c r="FL3" s="4"/>
-      <c r="FM3" s="4"/>
-      <c r="FN3" s="4"/>
-      <c r="FO3" s="4"/>
-      <c r="FP3" s="4"/>
-      <c r="FQ3" s="4"/>
-      <c r="FR3" s="4"/>
-      <c r="FS3" s="4"/>
-      <c r="FT3" s="4"/>
-      <c r="FU3" s="4"/>
-      <c r="FV3" s="4"/>
-      <c r="FW3" s="4"/>
-      <c r="FX3" s="4"/>
-      <c r="FY3" s="4"/>
-      <c r="FZ3" s="4"/>
-      <c r="GA3" s="4"/>
-      <c r="GB3" s="4"/>
-      <c r="GC3" s="4"/>
-      <c r="GD3" s="4"/>
-      <c r="GE3" s="4"/>
-      <c r="GF3" s="4"/>
-      <c r="GG3" s="4"/>
-      <c r="GH3" s="4"/>
-      <c r="GI3" s="4"/>
-      <c r="GJ3" s="4"/>
-      <c r="GK3" s="4"/>
-      <c r="GL3" s="4"/>
-      <c r="GM3" s="4"/>
-      <c r="GN3" s="4"/>
-      <c r="GO3" s="4"/>
-      <c r="GP3" s="4"/>
-      <c r="GQ3" s="4"/>
-      <c r="GR3" s="4"/>
-      <c r="GS3" s="4"/>
-      <c r="GT3" s="4"/>
-      <c r="GU3" s="4"/>
-      <c r="GV3" s="4"/>
-      <c r="GW3" s="4"/>
-      <c r="GX3" s="4"/>
-      <c r="GY3" s="4"/>
-      <c r="GZ3" s="4"/>
-      <c r="HA3" s="4"/>
-      <c r="HB3" s="4"/>
-      <c r="HC3" s="4"/>
-      <c r="HD3" s="4"/>
-      <c r="HE3" s="4"/>
-      <c r="HF3" s="4"/>
-      <c r="HG3" s="4"/>
-      <c r="HH3" s="4"/>
-      <c r="HI3" s="4"/>
-      <c r="HJ3" s="4"/>
-      <c r="HK3" s="4"/>
-      <c r="HL3" s="4"/>
-      <c r="HM3" s="4"/>
-      <c r="HN3" s="4"/>
-      <c r="HO3" s="4"/>
-      <c r="HP3" s="4"/>
-      <c r="HQ3" s="4"/>
-      <c r="HR3" s="4"/>
-      <c r="HS3" s="4"/>
+      <c r="FL3" s="3"/>
+      <c r="FM3" s="3"/>
+      <c r="FN3" s="3"/>
+      <c r="FO3" s="3"/>
+      <c r="FP3" s="3"/>
+      <c r="FQ3" s="3"/>
+      <c r="FR3" s="3"/>
+      <c r="FS3" s="3"/>
+      <c r="FT3" s="3"/>
+      <c r="FU3" s="3"/>
+      <c r="FV3" s="3"/>
+      <c r="FW3" s="3"/>
+      <c r="FX3" s="3"/>
+      <c r="FY3" s="3"/>
+      <c r="FZ3" s="3"/>
+      <c r="GA3" s="3"/>
+      <c r="GB3" s="3"/>
+      <c r="GC3" s="3"/>
+      <c r="GD3" s="3"/>
+      <c r="GE3" s="3"/>
+      <c r="GF3" s="3"/>
+      <c r="GG3" s="3"/>
+      <c r="GH3" s="3"/>
+      <c r="GI3" s="3"/>
+      <c r="GJ3" s="3"/>
+      <c r="GK3" s="3"/>
+      <c r="GL3" s="3"/>
+      <c r="GM3" s="3"/>
+      <c r="GN3" s="3"/>
+      <c r="GO3" s="3"/>
+      <c r="GP3" s="3"/>
+      <c r="GQ3" s="3"/>
+      <c r="GR3" s="3"/>
+      <c r="GS3" s="3"/>
+      <c r="GT3" s="3"/>
+      <c r="GU3" s="3"/>
+      <c r="GV3" s="3"/>
+      <c r="GW3" s="3"/>
+      <c r="GX3" s="3"/>
+      <c r="GY3" s="3"/>
+      <c r="GZ3" s="3"/>
+      <c r="HA3" s="3"/>
+      <c r="HB3" s="3"/>
+      <c r="HC3" s="3"/>
+      <c r="HD3" s="3"/>
+      <c r="HE3" s="3"/>
+      <c r="HF3" s="3"/>
+      <c r="HG3" s="3"/>
+      <c r="HH3" s="3"/>
+      <c r="HI3" s="3"/>
+      <c r="HJ3" s="3"/>
+      <c r="HK3" s="3"/>
+      <c r="HL3" s="3"/>
+      <c r="HM3" s="3"/>
+      <c r="HN3" s="3"/>
+      <c r="HO3" s="3"/>
+      <c r="HP3" s="3"/>
+      <c r="HQ3" s="3"/>
+      <c r="HR3" s="3"/>
+      <c r="HS3" s="3"/>
+      <c r="HT3" s="3"/>
     </row>
-    <row r="4" spans="1:227" ht="14.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="1:228" ht="14.4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="10"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="11"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
       <c r="BW4" s="10"/>
-      <c r="BX4" s="10"/>
-      <c r="BY4" s="10"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="10"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="10"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="9"/>
       <c r="CF4" s="9"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10"/>
-      <c r="CI4" s="10"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
       <c r="CJ4" s="9"/>
-      <c r="CK4" s="10"/>
+      <c r="CK4" s="8"/>
       <c r="CL4" s="9"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="11"/>
-      <c r="CQ4" s="9"/>
-      <c r="CR4" s="11"/>
-      <c r="CS4" s="9"/>
-      <c r="CT4" s="11"/>
-      <c r="CU4" s="9"/>
-      <c r="CV4" s="9"/>
-      <c r="CW4" s="10"/>
-      <c r="CX4" s="10"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="10"/>
-      <c r="DA4" s="10"/>
-      <c r="DB4" s="11"/>
-      <c r="DC4" s="9"/>
-      <c r="DD4" s="9"/>
-      <c r="DE4" s="10"/>
-      <c r="DF4" s="10"/>
-      <c r="DG4" s="10"/>
-      <c r="DH4" s="10"/>
-      <c r="DI4" s="10"/>
-      <c r="DJ4" s="10"/>
-      <c r="DK4" s="10"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="10"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="10"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="10"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="10"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
       <c r="DL4" s="9"/>
-      <c r="DM4" s="10"/>
-      <c r="DN4" s="10"/>
-      <c r="DO4" s="10"/>
+      <c r="DM4" s="8"/>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
       <c r="DP4" s="9"/>
-      <c r="DQ4" s="10"/>
-      <c r="DR4" s="10"/>
-      <c r="DS4" s="10"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
       <c r="DT4" s="9"/>
-      <c r="DU4" s="10"/>
-      <c r="DV4" s="10"/>
-      <c r="DW4" s="10"/>
-      <c r="DX4" s="10"/>
-      <c r="DY4" s="10"/>
-      <c r="DZ4" s="10"/>
-      <c r="EA4" s="10"/>
-      <c r="EB4" s="10"/>
-      <c r="EC4" s="10"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="9"/>
+      <c r="DW4" s="9"/>
+      <c r="DX4" s="9"/>
+      <c r="DY4" s="9"/>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="9"/>
+      <c r="EC4" s="9"/>
       <c r="ED4" s="9"/>
-      <c r="EE4" s="10"/>
+      <c r="EE4" s="8"/>
       <c r="EF4" s="9"/>
-      <c r="EG4" s="10"/>
-      <c r="EH4" s="10"/>
-      <c r="EI4" s="10"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="9"/>
+      <c r="EI4" s="9"/>
       <c r="EJ4" s="9"/>
-      <c r="EK4" s="10"/>
+      <c r="EK4" s="8"/>
       <c r="EL4" s="9"/>
-      <c r="EM4" s="10"/>
+      <c r="EM4" s="8"/>
       <c r="EN4" s="9"/>
-      <c r="EO4" s="10"/>
-      <c r="EP4" s="10"/>
-      <c r="EQ4" s="10"/>
-      <c r="ER4" s="10"/>
-      <c r="ES4" s="10"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="9"/>
+      <c r="EQ4" s="9"/>
+      <c r="ER4" s="9"/>
+      <c r="ES4" s="9"/>
       <c r="ET4" s="9"/>
-      <c r="EU4" s="10"/>
-      <c r="EV4" s="10"/>
-      <c r="EW4" s="10"/>
+      <c r="EU4" s="8"/>
+      <c r="EV4" s="9"/>
+      <c r="EW4" s="9"/>
       <c r="EX4" s="9"/>
-      <c r="EY4" s="10"/>
+      <c r="EY4" s="8"/>
       <c r="EZ4" s="9"/>
-      <c r="FA4" s="10"/>
+      <c r="FA4" s="8"/>
       <c r="FB4" s="9"/>
-      <c r="FC4" s="10"/>
+      <c r="FC4" s="8"/>
       <c r="FD4" s="9"/>
-      <c r="FE4" s="10"/>
-      <c r="FF4" s="10"/>
-      <c r="FG4" s="10"/>
+      <c r="FE4" s="8"/>
+      <c r="FF4" s="9"/>
+      <c r="FG4" s="9"/>
       <c r="FH4" s="9"/>
-      <c r="FI4" s="10"/>
+      <c r="FI4" s="8"/>
       <c r="FJ4" s="9"/>
-      <c r="FK4" s="10"/>
-      <c r="FL4" s="10"/>
-      <c r="FM4" s="10"/>
-      <c r="FN4" s="10"/>
-      <c r="FO4" s="10"/>
-      <c r="FP4" s="10"/>
-      <c r="FQ4" s="10"/>
-      <c r="FR4" s="10"/>
-      <c r="FS4" s="10"/>
-      <c r="FT4" s="10"/>
-      <c r="FU4" s="10"/>
+      <c r="FK4" s="8"/>
+      <c r="FL4" s="9"/>
+      <c r="FM4" s="9"/>
+      <c r="FN4" s="9"/>
+      <c r="FO4" s="9"/>
+      <c r="FP4" s="9"/>
+      <c r="FQ4" s="9"/>
+      <c r="FR4" s="9"/>
+      <c r="FS4" s="9"/>
+      <c r="FT4" s="9"/>
+      <c r="FU4" s="9"/>
+      <c r="FV4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/AllIndicesExample.xlsx
+++ b/src/assets/AllIndicesExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAAE94C-E881-4FD7-9F18-B2C1A7B22379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42451515-5D20-4CAB-9C21-0D645E43D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,9 +382,6 @@
     <t>NFTCONS</t>
   </si>
   <si>
-    <t>NFTINDCONS</t>
-  </si>
-  <si>
     <t>NFTINDDIG</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>GNFTCONS</t>
   </si>
   <si>
-    <t>GNFTINDCONS</t>
-  </si>
-  <si>
     <t>GNFTINDDIG</t>
   </si>
   <si>
@@ -713,6 +707,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>NFTDEF</t>
+  </si>
+  <si>
+    <t>GNFTDEF</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:HT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="EJ1" sqref="EJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1414,7 +1414,7 @@
   <sheetData>
     <row r="1" spans="1:228" ht="43.8" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1456,10 +1456,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>13</v>
@@ -1744,16 +1744,16 @@
         <v>106</v>
       </c>
       <c r="DG1" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="DH1" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="DI1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="DH1" s="18" t="s">
+      <c r="DJ1" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="DI1" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="DJ1" s="18" t="s">
-        <v>218</v>
       </c>
       <c r="DK1" s="18" t="s">
         <v>107</v>
@@ -1762,340 +1762,340 @@
         <v>108</v>
       </c>
       <c r="DM1" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DN1" s="18" t="s">
         <v>109</v>
       </c>
       <c r="DO1" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DP1" s="18" t="s">
         <v>110</v>
       </c>
       <c r="DQ1" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DR1" s="18" t="s">
         <v>111</v>
       </c>
       <c r="DS1" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DT1" s="19" t="s">
         <v>112</v>
       </c>
       <c r="DU1" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DV1" s="18" t="s">
         <v>113</v>
       </c>
       <c r="DW1" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DX1" s="18" t="s">
         <v>114</v>
       </c>
       <c r="DY1" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DZ1" s="18" t="s">
         <v>115</v>
       </c>
       <c r="EA1" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EB1" s="18" t="s">
         <v>116</v>
       </c>
       <c r="EC1" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="ED1" s="18" t="s">
         <v>117</v>
       </c>
       <c r="EE1" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="EF1" s="18" t="s">
         <v>118</v>
       </c>
       <c r="EG1" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="EH1" s="18" t="s">
         <v>119</v>
       </c>
       <c r="EI1" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="EJ1" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="EK1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="EL1" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="EM1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="EJ1" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="EK1" s="18" t="s">
+      <c r="EN1" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="EO1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="EL1" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="EM1" s="18" t="s">
+      <c r="EP1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="EQ1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="EN1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="EO1" s="18" t="s">
+      <c r="ER1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="ES1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="EP1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="EQ1" s="19" t="s">
+      <c r="ET1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="EU1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="ER1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="ES1" s="18" t="s">
+      <c r="EV1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="EW1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="ET1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="EU1" s="18" t="s">
+      <c r="EX1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="EY1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="EV1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="EW1" s="18" t="s">
+      <c r="EZ1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="FA1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="EX1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="EY1" s="18" t="s">
+      <c r="FB1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="FC1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="EZ1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="FA1" s="18" t="s">
+      <c r="FD1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="FE1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="FB1" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="FC1" s="18" t="s">
+      <c r="FF1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="FG1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="FD1" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="FE1" s="18" t="s">
+      <c r="FH1" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="FI1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="FF1" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="FG1" s="18" t="s">
+      <c r="FJ1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="FK1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="FH1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="FI1" s="18" t="s">
+      <c r="FL1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="FM1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="FJ1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="FK1" s="18" t="s">
+      <c r="FN1" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="FO1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="FP1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="FQ1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="FL1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="FM1" s="18" t="s">
+      <c r="FR1" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="FS1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="FN1" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="FO1" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="FP1" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="FQ1" s="18" t="s">
+      <c r="FT1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="FU1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="FR1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="FS1" s="18" t="s">
+      <c r="FV1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="FW1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="FT1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="FU1" s="18" t="s">
+      <c r="FX1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="FY1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="FZ1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="GA1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="GB1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="GC1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="FV1" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="FW1" s="18" t="s">
+      <c r="GD1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="GE1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="FX1" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="FY1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="FZ1" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="GA1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="GB1" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="GC1" s="18" t="s">
+      <c r="GF1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="GG1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="GD1" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="GE1" s="18" t="s">
+      <c r="GH1" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="GI1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="GF1" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="GG1" s="18" t="s">
+      <c r="GJ1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="GK1" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="GL1" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="GM1" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="GH1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="GI1" s="18" t="s">
+      <c r="GN1" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="GO1" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="GK1" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="GL1" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="GM1" s="18" t="s">
+      <c r="GP1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="GQ1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="GN1" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="GO1" s="18" t="s">
+      <c r="GR1" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="GS1" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="GP1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="GQ1" s="18" t="s">
+      <c r="GT1" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="GU1" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="GR1" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="GS1" s="18" t="s">
+      <c r="GV1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="GW1" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="GT1" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="GU1" s="18" t="s">
+      <c r="GX1" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="GY1" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="GV1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="GW1" s="18" t="s">
+      <c r="GZ1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="HA1" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="GX1" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="GY1" s="18" t="s">
+      <c r="HB1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="HC1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="GZ1" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="HA1" s="18" t="s">
+      <c r="HD1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="HE1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="HB1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="HC1" s="18" t="s">
+      <c r="HF1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="HG1" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="HD1" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="HE1" s="18" t="s">
+      <c r="HH1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="HI1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="HF1" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="HG1" s="18" t="s">
+      <c r="HJ1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="HK1" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="HH1" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="HI1" s="18" t="s">
+      <c r="HL1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="HM1" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="HJ1" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="HK1" s="18" t="s">
+      <c r="HN1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="HO1" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="HL1" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="HM1" s="18" t="s">
+      <c r="HP1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="HQ1" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="HN1" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="HO1" s="18" t="s">
+      <c r="HR1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="HS1" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="HP1" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="HQ1" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="HR1" s="18" t="s">
+      <c r="HT1" s="18" t="s">
         <v>159</v>
-      </c>
-      <c r="HS1" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="HT1" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:228" ht="14.4">
@@ -2785,13 +2785,13 @@
     <row r="3" spans="1:228" ht="43.2">
       <c r="A3" s="24"/>
       <c r="B3" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
